--- a/hz-back/src/main/resources/excel/report_17.xlsx
+++ b/hz-back/src/main/resources/excel/report_17.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FD2857-0A3E-4367-98CE-B47FEBD3CF94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +30,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">机构 </t>
-  </si>
-  <si>
     <t>关注</t>
   </si>
   <si>
@@ -81,19 +79,23 @@
   </si>
   <si>
     <t>$MAIN_BR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贷款机构 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,40 +310,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -350,11 +352,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +438,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,6 +490,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,139 +683,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.8">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
       <c r="H3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -782,7 +828,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -795,7 +841,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -808,7 +854,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6">
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -821,7 +867,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6">
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -834,7 +880,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -847,7 +893,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -860,7 +906,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -873,7 +919,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -886,7 +932,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -899,7 +945,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -912,7 +958,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -925,7 +971,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -938,7 +984,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -951,7 +997,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -964,7 +1010,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -977,7 +1023,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -990,11 +1036,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G24" s="3"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G25" s="3"/>
       <c r="J25" s="3"/>
     </row>
@@ -1016,12 +1062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,12 +1076,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
